--- a/counts.xlsx
+++ b/counts.xlsx
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
